--- a/src/npc.xlsx
+++ b/src/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,9 +44,6 @@
     <t>又一條年輕的生命阿...可惜了</t>
   </si>
   <si>
-    <t>在這座塔裡，長得像我這樣的人會告訴你許多有用的資訊和建議，然後神秘的消失。沒錯，我就是所謂生命中的貴人，盡量多找像我這種人聊天，對於往後的人生大有幫助。</t>
-  </si>
-  <si>
     <t>string dialogue (對話內容)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,11 +54,32 @@
     <t>防禦力的重要性往往被忽略了......</t>
   </si>
   <si>
+    <t>生命+100攻擊+10防禦+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>聽說黃鑰匙只能開黃色的門......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾經有人告訴我，天上掉下來的只有鳥屎。</t>
+  </si>
+  <si>
+    <t>在這座塔裡，長得像我這樣的人會告訴你許多有用的資訊和建議，然後神秘的消失。盡量多找像我這種人聊天，對於往後的路程大有幫助。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命+100攻擊+10防禦+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+100攻擊+10防禦+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編劇還沒想好這裡要說甚麼</t>
+  </si>
+  <si>
+    <t>馬上要到十樓了，加油好嗎!</t>
   </si>
 </sst>
 </file>
@@ -386,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -415,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -426,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -446,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -455,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -475,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -486,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -495,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -526,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -535,7 +553,107 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/npc.xlsx
+++ b/src/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,12 +49,22 @@
   </si>
   <si>
     <t>這座塔危機四伏，怪物橫行，想要爬上塔頂，必須要到商店提升自我，但是這些不是免費的。殺死怪物可以獲得金錢，但是會損失生命且效率不高，所以說有個有錢的老爸還是比較好...</t>
-  </si>
-  <si>
-    <t>防禦力的重要性往往被忽略了......</t>
-  </si>
-  <si>
-    <t>生命+100攻擊+10防禦+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在這座塔裡，長得像我這樣的人會告訴你許多有用的資訊和建議，然後神秘的消失。盡量多找像我這種人聊天，對於往後的路程大有幫助。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦力的重要性往往被忽略了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,24 +72,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生命+100  攻擊+10  防禦+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>曾經有人告訴我，天上掉下來的只有鳥屎。</t>
-  </si>
-  <si>
-    <t>在這座塔裡，長得像我這樣的人會告訴你許多有用的資訊和建議，然後神秘的消失。盡量多找像我這種人聊天，對於往後的路程大有幫助。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命+100攻擊+10防禦+10</t>
-  </si>
-  <si>
-    <t>生命+100攻擊+10防禦+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編劇還沒想好這裡要說甚麼</t>
-  </si>
-  <si>
-    <t>馬上要到十樓了，加油好嗎!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬上要到頂樓了，加油好嗎!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想不到你可以走到這裡，編劇還沒給我講稿欸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+100攻擊+10防禦+10  *2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+100攻擊+10防禦+10  *3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇犽，到此為止了，接下來就由我鎖鏈的庫拉皮卡丘來做你的對手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,19 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="40.3984375" customWidth="1"/>
-    <col min="6" max="6" width="48.8984375" customWidth="1"/>
+    <col min="5" max="6" width="40.3984375" customWidth="1"/>
+    <col min="7" max="7" width="48.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,10 +451,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9</v>
       </c>
@@ -452,11 +476,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -472,11 +499,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -492,11 +522,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -512,11 +545,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -532,11 +568,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -552,11 +591,14 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -572,11 +614,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -592,11 +637,14 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -612,11 +660,14 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -632,11 +683,14 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -652,8 +706,34 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
